--- a/xls/activites_reward.xlsx
+++ b/xls/activites_reward.xlsx
@@ -37,7 +37,7 @@
     <t>OIL</t>
   </si>
   <si>
-    <t>jia</t>
+    <t>jia，2</t>
   </si>
   <si>
     <t>ENERGY_10</t>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
